--- a/natmiOut/OldD0/LR-pairs_lrc2p/Tnc-Itgb3.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Tnc-Itgb3.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.4643681400924</v>
+        <v>12.07002266666666</v>
       </c>
       <c r="H2">
-        <v>5.4643681400924</v>
+        <v>36.21006799999999</v>
       </c>
       <c r="I2">
-        <v>0.6001820453136538</v>
+        <v>0.7601982364861632</v>
       </c>
       <c r="J2">
-        <v>0.6001820453136538</v>
+        <v>0.7601982364861634</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.12912233874293</v>
+        <v>7.214110666666667</v>
       </c>
       <c r="N2">
-        <v>6.12912233874293</v>
+        <v>21.642332</v>
       </c>
       <c r="O2">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="P2">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="Q2">
-        <v>33.49178083455549</v>
+        <v>87.07447926650843</v>
       </c>
       <c r="R2">
-        <v>33.49178083455549</v>
+        <v>783.6703133985758</v>
       </c>
       <c r="S2">
-        <v>0.2583337589425092</v>
+        <v>0.3564435580899257</v>
       </c>
       <c r="T2">
-        <v>0.2583337589425092</v>
+        <v>0.3564435580899258</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.4643681400924</v>
+        <v>12.07002266666666</v>
       </c>
       <c r="H3">
-        <v>5.4643681400924</v>
+        <v>36.21006799999999</v>
       </c>
       <c r="I3">
-        <v>0.6001820453136538</v>
+        <v>0.7601982364861632</v>
       </c>
       <c r="J3">
-        <v>0.6001820453136538</v>
+        <v>0.7601982364861634</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.0811189833722</v>
+        <v>7.110350666666666</v>
       </c>
       <c r="N3">
-        <v>7.0811189833722</v>
+        <v>21.331052</v>
       </c>
       <c r="O3">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="P3">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="Q3">
-        <v>38.69384096894253</v>
+        <v>85.82209371461509</v>
       </c>
       <c r="R3">
-        <v>38.69384096894253</v>
+        <v>772.3988434315359</v>
       </c>
       <c r="S3">
-        <v>0.2984590588003964</v>
+        <v>0.351316857752724</v>
       </c>
       <c r="T3">
-        <v>0.2984590588003964</v>
+        <v>0.351316857752724</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.4643681400924</v>
+        <v>12.07002266666666</v>
       </c>
       <c r="H4">
-        <v>5.4643681400924</v>
+        <v>36.21006799999999</v>
       </c>
       <c r="I4">
-        <v>0.6001820453136538</v>
+        <v>0.7601982364861632</v>
       </c>
       <c r="J4">
-        <v>0.6001820453136538</v>
+        <v>0.7601982364861634</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.02943527417126</v>
+        <v>1.061296333333333</v>
       </c>
       <c r="N4">
-        <v>1.02943527417126</v>
+        <v>3.183889</v>
       </c>
       <c r="O4">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="P4">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="Q4">
-        <v>5.625213314468718</v>
+        <v>12.80987079938355</v>
       </c>
       <c r="R4">
-        <v>5.625213314468718</v>
+        <v>115.288837194452</v>
       </c>
       <c r="S4">
-        <v>0.04338922757074831</v>
+        <v>0.05243782064351362</v>
       </c>
       <c r="T4">
-        <v>0.04338922757074831</v>
+        <v>0.05243782064351363</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.2018899993457</v>
+        <v>1.308268</v>
       </c>
       <c r="H5">
-        <v>1.2018899993457</v>
+        <v>3.924804</v>
       </c>
       <c r="I5">
-        <v>0.1320102854631479</v>
+        <v>0.08239777620284613</v>
       </c>
       <c r="J5">
-        <v>0.1320102854631479</v>
+        <v>0.08239777620284613</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>6.12912233874293</v>
+        <v>7.214110666666667</v>
       </c>
       <c r="N5">
-        <v>6.12912233874293</v>
+        <v>21.642332</v>
       </c>
       <c r="O5">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="P5">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="Q5">
-        <v>7.366530843701455</v>
+        <v>9.437990133658666</v>
       </c>
       <c r="R5">
-        <v>7.366530843701455</v>
+        <v>84.941911202928</v>
       </c>
       <c r="S5">
-        <v>0.05682061555997841</v>
+        <v>0.03863486537958374</v>
       </c>
       <c r="T5">
-        <v>0.05682061555997841</v>
+        <v>0.03863486537958374</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.2018899993457</v>
+        <v>1.308268</v>
       </c>
       <c r="H6">
-        <v>1.2018899993457</v>
+        <v>3.924804</v>
       </c>
       <c r="I6">
-        <v>0.1320102854631479</v>
+        <v>0.08239777620284613</v>
       </c>
       <c r="J6">
-        <v>0.1320102854631479</v>
+        <v>0.08239777620284613</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.0811189833722</v>
+        <v>7.110350666666666</v>
       </c>
       <c r="N6">
-        <v>7.0811189833722</v>
+        <v>21.331052</v>
       </c>
       <c r="O6">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="P6">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="Q6">
-        <v>8.510726090292037</v>
+        <v>9.302244245978667</v>
       </c>
       <c r="R6">
-        <v>8.510726090292037</v>
+        <v>83.720198213808</v>
       </c>
       <c r="S6">
-        <v>0.06564619161626634</v>
+        <v>0.03807918307624616</v>
       </c>
       <c r="T6">
-        <v>0.06564619161626634</v>
+        <v>0.03807918307624616</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.2018899993457</v>
+        <v>1.308268</v>
       </c>
       <c r="H7">
-        <v>1.2018899993457</v>
+        <v>3.924804</v>
       </c>
       <c r="I7">
-        <v>0.1320102854631479</v>
+        <v>0.08239777620284613</v>
       </c>
       <c r="J7">
-        <v>0.1320102854631479</v>
+        <v>0.08239777620284613</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.02943527417126</v>
+        <v>1.061296333333333</v>
       </c>
       <c r="N7">
-        <v>1.02943527417126</v>
+        <v>3.183889</v>
       </c>
       <c r="O7">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="P7">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="Q7">
-        <v>1.237267961000136</v>
+        <v>1.388460031417333</v>
       </c>
       <c r="R7">
-        <v>1.237267961000136</v>
+        <v>12.496140282756</v>
       </c>
       <c r="S7">
-        <v>0.009543478286903138</v>
+        <v>0.005683727747016241</v>
       </c>
       <c r="T7">
-        <v>0.009543478286903138</v>
+        <v>0.005683727747016241</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.4382597027055</v>
+        <v>2.499176666666667</v>
       </c>
       <c r="H8">
-        <v>2.4382597027055</v>
+        <v>7.49753</v>
       </c>
       <c r="I8">
-        <v>0.2678076692231983</v>
+        <v>0.1574039873109905</v>
       </c>
       <c r="J8">
-        <v>0.2678076692231983</v>
+        <v>0.1574039873109906</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.12912233874293</v>
+        <v>7.214110666666667</v>
       </c>
       <c r="N8">
-        <v>6.12912233874293</v>
+        <v>21.642332</v>
       </c>
       <c r="O8">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="P8">
-        <v>0.4304256699440325</v>
+        <v>0.4688823795981188</v>
       </c>
       <c r="Q8">
-        <v>14.94439201150898</v>
+        <v>18.02933704888444</v>
       </c>
       <c r="R8">
-        <v>14.94439201150898</v>
+        <v>162.26403343996</v>
       </c>
       <c r="S8">
-        <v>0.115271295441545</v>
+        <v>0.07380395612860935</v>
       </c>
       <c r="T8">
-        <v>0.115271295441545</v>
+        <v>0.07380395612860936</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.4382597027055</v>
+        <v>2.499176666666667</v>
       </c>
       <c r="H9">
-        <v>2.4382597027055</v>
+        <v>7.49753</v>
       </c>
       <c r="I9">
-        <v>0.2678076692231983</v>
+        <v>0.1574039873109905</v>
       </c>
       <c r="J9">
-        <v>0.2678076692231983</v>
+        <v>0.1574039873109906</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.0811189833722</v>
+        <v>7.110350666666666</v>
       </c>
       <c r="N9">
-        <v>7.0811189833722</v>
+        <v>21.331052</v>
       </c>
       <c r="O9">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="P9">
-        <v>0.4972808852427805</v>
+        <v>0.4621384803214003</v>
       </c>
       <c r="Q9">
-        <v>17.26560706721937</v>
+        <v>17.77002247795111</v>
       </c>
       <c r="R9">
-        <v>17.26560706721937</v>
+        <v>159.93020230156</v>
       </c>
       <c r="S9">
-        <v>0.1331756348261178</v>
+        <v>0.07274243949243014</v>
       </c>
       <c r="T9">
-        <v>0.1331756348261178</v>
+        <v>0.07274243949243016</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.4382597027055</v>
+        <v>2.499176666666667</v>
       </c>
       <c r="H10">
-        <v>2.4382597027055</v>
+        <v>7.49753</v>
       </c>
       <c r="I10">
-        <v>0.2678076692231983</v>
+        <v>0.1574039873109905</v>
       </c>
       <c r="J10">
-        <v>0.2678076692231983</v>
+        <v>0.1574039873109906</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.02943527417126</v>
+        <v>1.061296333333333</v>
       </c>
       <c r="N10">
-        <v>1.02943527417126</v>
+        <v>3.183889</v>
       </c>
       <c r="O10">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="P10">
-        <v>0.07229344481318696</v>
+        <v>0.06897914008048092</v>
       </c>
       <c r="Q10">
-        <v>2.510030545555371</v>
+        <v>2.652367032685555</v>
       </c>
       <c r="R10">
-        <v>2.510030545555371</v>
+        <v>23.87130329417</v>
       </c>
       <c r="S10">
-        <v>0.01936073895553551</v>
+        <v>0.01085759168995106</v>
       </c>
       <c r="T10">
-        <v>0.01936073895553551</v>
+        <v>0.01085759168995106</v>
       </c>
     </row>
   </sheetData>
